--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,258 +1412,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,10 +1676,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,74 +1692,74 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,1061 +1772,1064 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B146" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B147" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B153" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="B155" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>322</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B157" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B162" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B175" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B177">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="353">
   <si>
     <t>Fiji</t>
   </si>
@@ -1032,9 +1032,6 @@
     <t>Сербия</t>
   </si>
   <si>
-    <t>Косово</t>
-  </si>
-  <si>
     <t>Тринидад и Тобаго</t>
   </si>
   <si>
@@ -1053,12 +1050,6 @@
     <t> </t>
   </si>
   <si>
-    <t>Сев.Макед.</t>
-  </si>
-  <si>
-    <t>Чрнгр</t>
-  </si>
-  <si>
     <t>Доминикана</t>
   </si>
   <si>
@@ -1081,6 +1072,12 @@
   </si>
   <si>
     <t>Вост.Тимор</t>
+  </si>
+  <si>
+    <t>Македония</t>
+  </si>
+  <si>
+    <t>Черногория</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1556,7 @@
         <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1636,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1756,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +1812,7 @@
         <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2087,7 +2084,7 @@
         <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2239,7 +2236,7 @@
         <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,7 +2268,7 @@
         <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2351,7 +2348,7 @@
         <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2484,7 @@
         <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2540,7 @@
         <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="B160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,7 +2732,7 @@
         <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +2740,7 @@
         <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -570,9 +570,6 @@
     <t>Узбекистан</t>
   </si>
   <si>
-    <t>Папуа - Новая Гвинея</t>
-  </si>
-  <si>
     <t>Индонезия</t>
   </si>
   <si>
@@ -1078,6 +1075,9 @@
   </si>
   <si>
     <t>Черногория</t>
+  </si>
+  <si>
+    <t>Папуа-Новая Гвинея</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1412,7 @@
         <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1812,7 @@
         <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
         <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
         <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
         <v>148</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
         <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
         <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
         <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
         <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>102</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>79</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
         <v>156</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>113</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2452,7 @@
         <v>85</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2476,7 @@
         <v>169</v>
       </c>
       <c r="B134" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>64</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>150</v>
       </c>
       <c r="B141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>96</v>
       </c>
       <c r="B146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>132</v>
       </c>
       <c r="B147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>110</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>127</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>108</v>
       </c>
       <c r="B153" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>140</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>104</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>91</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="B160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>124</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>112</v>
       </c>
       <c r="B165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>28</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>89</v>
       </c>
       <c r="B171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
         <v>157</v>
       </c>
       <c r="B175" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -1077,7 +1077,7 @@
     <t>Черногория</t>
   </si>
   <si>
-    <t>Папуа-Новая Гвинея</t>
+    <t>Папуа - Новая Гвинея</t>
   </si>
 </sst>
 </file>

--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -789,9 +789,6 @@
     <t>Мьянма</t>
   </si>
   <si>
-    <t>Вьетнам</t>
-  </si>
-  <si>
     <t>Северная Корея</t>
   </si>
   <si>
@@ -1084,6 +1081,9 @@
   </si>
   <si>
     <t xml:space="preserve">                           Франция  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Вьетнам</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1421,7 @@
         <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>139</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>166</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>163</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>165</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>43</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>146</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>115</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>98</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2013,7 +2013,7 @@
         <v>107</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,7 +2045,7 @@
         <v>141</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,7 +2093,7 @@
         <v>174</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>105</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,7 +2125,7 @@
         <v>119</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>164</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
         <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>128</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>148</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2229,7 @@
         <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>162</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>160</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>134</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2349,7 @@
         <v>95</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
         <v>171</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>102</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>79</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>156</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>147</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>113</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
         <v>131</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>169</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
         <v>176</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>172</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>152</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>150</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2549,7 @@
         <v>135</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>167</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>25</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>96</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>132</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2597,7 @@
         <v>138</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>110</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
         <v>127</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>108</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>140</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>104</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>175</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2717,7 +2717,7 @@
         <v>106</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>168</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>112</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,7 +2741,7 @@
         <v>84</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>143</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>94</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
         <v>157</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="352">
   <si>
     <t>Fiji</t>
   </si>
@@ -829,9 +829,6 @@
   </si>
   <si>
     <t>Сирия</t>
-  </si>
-  <si>
-    <t>Швеция</t>
   </si>
   <si>
     <t>Беларусь</t>
@@ -1076,20 +1073,19 @@
     <t>           Доминикана</t>
   </si>
   <si>
-    <t xml:space="preserve">  
-Норвегия</t>
-  </si>
-  <si>
     <t xml:space="preserve">                           Франция  </t>
   </si>
   <si>
     <t xml:space="preserve">            Вьетнам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Норвегия           Швеция                                           </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1184,7 +1180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1219,7 +1215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1396,7 +1392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1406,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1425,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +1449,7 @@
         <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1465,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1473,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1481,7 @@
         <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1489,7 @@
         <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1513,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1521,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,7 +1561,7 @@
         <v>170</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,7 +1585,7 @@
         <v>149</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1593,7 @@
         <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,7 +1641,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,7 +1665,7 @@
         <v>139</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1705,7 @@
         <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1725,7 +1721,7 @@
         <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,7 +1729,7 @@
         <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1745,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1753,7 @@
         <v>166</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1777,7 @@
         <v>163</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1801,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1809,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,7 +1817,7 @@
         <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1825,7 @@
         <v>165</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,7 +1833,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1845,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,7 +1849,7 @@
         <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1865,7 @@
         <v>43</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,7 +1889,7 @@
         <v>146</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,7 +1897,7 @@
         <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,7 +1913,7 @@
         <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,7 +1977,7 @@
         <v>115</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1985,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,7 +2025,7 @@
         <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,7 +2041,7 @@
         <v>141</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,7 +2057,7 @@
         <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2065,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,7 +2089,7 @@
         <v>174</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,7 +2121,7 @@
         <v>119</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2153,7 @@
         <v>164</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,7 +2161,7 @@
         <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,7 +2169,7 @@
         <v>128</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2193,7 @@
         <v>148</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2225,7 @@
         <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2241,7 @@
         <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2249,7 @@
         <v>162</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2273,7 @@
         <v>160</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2297,7 @@
         <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,7 +2305,7 @@
         <v>134</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2313,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,16 +2353,14 @@
         <v>171</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -2389,7 +2383,7 @@
         <v>79</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2407,7 @@
         <v>156</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2423,7 @@
         <v>147</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2431,7 @@
         <v>113</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2439,7 @@
         <v>131</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2463,7 @@
         <v>117</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,7 +2479,7 @@
         <v>169</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,7 +2487,7 @@
         <v>176</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2495,7 @@
         <v>158</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2511,7 @@
         <v>172</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2527,7 @@
         <v>152</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,7 +2535,7 @@
         <v>150</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2543,7 @@
         <v>135</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2559,7 @@
         <v>167</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,7 +2567,7 @@
         <v>25</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,7 +2583,7 @@
         <v>132</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2591,7 @@
         <v>138</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,7 +2615,7 @@
         <v>110</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,7 +2623,7 @@
         <v>127</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,7 +2639,7 @@
         <v>140</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,7 +2671,7 @@
         <v>24</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,7 +2687,7 @@
         <v>175</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,7 +2703,7 @@
         <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,7 +2719,7 @@
         <v>168</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,7 +2727,7 @@
         <v>112</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,7 +2735,7 @@
         <v>84</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,7 +2743,7 @@
         <v>143</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,7 +2807,7 @@
         <v>157</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/config/EngmaptoRu.xlsx
+++ b/config/EngmaptoRu.xlsx
@@ -1392,7 +1392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
